--- a/RBM_Dominica_1.xlsx
+++ b/RBM_Dominica_1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertorojas-laguna1/Desktop/Jaakko_Vaccines/Jaakko_Vaccines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertorojas-laguna1/Desktop/RA_Lothar/Jaakko_Vaccines/Jaakko_Vaccines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0F93E-2214-B04B-B598-153CBB72EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42571B-9950-5E4B-9A7E-FC9D589DDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{0D3662D0-E0F4-8B46-AA33-34630DB83010}"/>
   </bookViews>
   <sheets>
     <sheet name="RBM" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,14 +52,6 @@
     <t>Dominica doesn't have a draft of an RBM policy yet.</t>
   </si>
   <si>
-    <t>RBM in legally embeded at secondary and subordinate legislation level. Links or refferences to that legislation are not available since we only have policy documents which are not considered legislation. They are approved by the government. They are the National Resilience Development Strategy 2018-2030; and the Climate Resilience and Recovery Plan 2020-2030 www.planning.gov.dm -</t>
-  </si>
-  <si>
-    <t>Stages of developping and approving the National Resilience Development Strategy 2030. The following MDA's and actors are involved in the development and approval of the plan:  - All MDAs  provide input into the NRDS, Validate various dras of document  - External partners provide feedback on dra document ( The International Monetary Fund was engaged to craft the Disaster Resilince Strategy) - Societal groups and business organizations provide input in document - Cabinet approve draft strategy for onward approval of Parliament - Parliment approves strategy  -</t>
-  </si>
-  <si>
     <t>We submit policy papers for every program that we prepare to undertake, that we plan for. We prepare policy papers, policy briefs or concept papers that we deliver to the policy board for approval. (Approves across government) . ONly when it is approved, they more forward to implementation  </t>
   </si>
@@ -420,6 +412,12 @@
   </si>
   <si>
     <t>There is a bit of lack of incentives to use evidence but the real problem relies more in the lack of data. Incentives would neverhteless be usefull. Not necesarrilly monetary but of recognition. We need a system that recognices performance , a rewards program</t>
+  </si>
+  <si>
+    <t>RBM in legally embeded at secondary and subordinate legislation level. Links or refferences to that legislation are not available since we only have policy documents which are not considered legislation. They are approved by the government. They are the National Resilience Development Strategy 2018-2030; and the Climate Resilience and Recovery Plan 2020-2030 www.planning.gov.dm_x000B_</t>
+  </si>
+  <si>
+    <t>Stages of developping and approving the National Resilience Development Strategy 2030. The following MDA's and actors are involved in the development and approval of the plan:  \n\n \t + All MDAs  provide input into the NRDS, Validate various dras of document\n\n  \t + External partners provide feedback on dra document ( The International Monetary Fund was engaged to craft the Disaster Resilince Strategy)\n\n  \t +  Societal groups and business organizations provide input in document \n\n  \t + Cabinet approve draft strategy for onward approval of Parliament \n\n  \t +  Parliment approves strategy _x000B_</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1738,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1749,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1760,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1848,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1914,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1936,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1980,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2013,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2035,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2079,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2134,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2310,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2332,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2343,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2398,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2409,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2464,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2530,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2552,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2563,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2574,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2585,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2706,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2717,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2750,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2783,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2794,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2805,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2849,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2860,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2904,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2937,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2981,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3014,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3047,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3058,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3069,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3102,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3124,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3135,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3168,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3190,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3201,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3212,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
